--- a/src/mian/new.xlsx
+++ b/src/mian/new.xlsx
@@ -70656,7 +70656,7 @@
       </c>
       <c r="BC187" t="inlineStr">
         <is>
-          <t>0.7542857142857143</t>
+          <t>0.7586206896551724</t>
         </is>
       </c>
       <c r="BD187" t="inlineStr">
@@ -70684,17 +70684,17 @@
       <c r="BR187" t="inlineStr"/>
       <c r="BS187" t="inlineStr">
         <is>
-          <t>0.9252873563218391</t>
+          <t>0.930635838150289</t>
         </is>
       </c>
       <c r="BT187" t="inlineStr">
         <is>
-          <t>0.867816091954023</t>
+          <t>0.8728323699421965</t>
         </is>
       </c>
       <c r="BU187" t="inlineStr">
         <is>
-          <t>0.8850574712643678</t>
+          <t>0.8901734104046243</t>
         </is>
       </c>
       <c r="BV187" t="inlineStr"/>
@@ -70704,27 +70704,27 @@
       <c r="BZ187" t="inlineStr"/>
       <c r="CA187" t="inlineStr">
         <is>
-          <t>0.4482758620689655</t>
+          <t>0.6141732283464567</t>
         </is>
       </c>
       <c r="CB187" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6850393700787402</t>
         </is>
       </c>
       <c r="CC187" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.6614173228346457</t>
         </is>
       </c>
       <c r="CD187" t="inlineStr">
         <is>
-          <t>0.43103448275862066</t>
+          <t>0.5905511811023622</t>
         </is>
       </c>
       <c r="CE187" t="inlineStr">
         <is>
-          <t>0.4885057471264368</t>
+          <t>0.6692913385826772</t>
         </is>
       </c>
       <c r="CF187" t="inlineStr"/>
@@ -70737,72 +70737,72 @@
       <c r="CM187" t="inlineStr"/>
       <c r="CN187" t="inlineStr">
         <is>
-          <t>0.7559055118110236</t>
+          <t>0.7619047619047619</t>
         </is>
       </c>
       <c r="CO187" t="inlineStr">
         <is>
-          <t>0.7007874015748031</t>
+          <t>0.7063492063492064</t>
         </is>
       </c>
       <c r="CP187" t="inlineStr">
         <is>
-          <t>0.889763779527559</t>
+          <t>0.8968253968253969</t>
         </is>
       </c>
       <c r="CQ187" t="inlineStr">
         <is>
-          <t>0.7165354330708661</t>
+          <t>0.7222222222222222</t>
         </is>
       </c>
       <c r="CR187" t="inlineStr">
         <is>
-          <t>0.7480314960629921</t>
+          <t>0.753968253968254</t>
         </is>
       </c>
       <c r="CS187" t="inlineStr">
         <is>
-          <t>0.7244094488188977</t>
+          <t>0.7301587301587301</t>
         </is>
       </c>
       <c r="CT187" t="inlineStr">
         <is>
-          <t>0.7559055118110236</t>
+          <t>0.7619047619047619</t>
         </is>
       </c>
       <c r="CU187" t="inlineStr">
         <is>
-          <t>0.11811023622047244</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="CV187" t="inlineStr">
         <is>
-          <t>0.15748031496062992</t>
+          <t>0.8695652173913043</t>
         </is>
       </c>
       <c r="CW187" t="inlineStr">
         <is>
-          <t>0.1732283464566929</t>
+          <t>0.9565217391304348</t>
         </is>
       </c>
       <c r="CX187" t="inlineStr">
         <is>
-          <t>0.11023622047244094</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
       <c r="CY187" t="inlineStr">
         <is>
-          <t>0.11811023622047244</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="CZ187" t="inlineStr">
         <is>
-          <t>0.1732283464566929</t>
+          <t>0.9565217391304348</t>
         </is>
       </c>
       <c r="DA187" t="inlineStr">
         <is>
-          <t>0.14173228346456693</t>
+          <t>0.782608695652174</t>
         </is>
       </c>
       <c r="DB187" t="inlineStr"/>
